--- a/data.xlsx
+++ b/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -493,26 +493,62 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Industrial Training on Flutter &amp; Dart - The complete guide [2022 Edition]</t>
+          <t>Flutter &amp; Dart - The Complete Guide [2022 Edition]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>https://udemy.com/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/media/data/udemy_training.pdf</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>44920</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Flutter 0</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Flutter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>https://udemy.com</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>tech</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/media/data/udemy_training_AeZKtX9.pdf</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>44872</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>http://127.0.0.1:8000/media/data/udemy_training_SudfPTv.pdf</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>44921</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -529,7 +529,8 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Flutter</t>
+          <t xml:space="preserve">Flutter
+                    </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
